--- a/biology/Médecine/Eduard_Sonnenburg/Eduard_Sonnenburg.xlsx
+++ b/biology/Médecine/Eduard_Sonnenburg/Eduard_Sonnenburg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eduard Sonnenburg est un médecin et chirurgien allemand, né en 1848 et mort en 1915, surtout connu pour ses importantes contributions à la chirurgie de l'abdomen.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Eduard Sonnenburg obtient son doctorat à l'université d'Iéna en 1872. De 1873 à 1880, il exerce comme assistant de Georg Albert Lücke à la clinique chirurgicale de Strasbourg, en Alsace, où il obtient son habilitation à l'enseignement supérieur en 1876. Il travaille ensuite à Berlin sous la direction de Bernhard von Langenbeck et d'Ernst von Bergmann à l'hôpital de la Charité, tout en enseignant à l'université Frédéric-Guillaume où il est reçu privat-docent en 1881, puis nommé professeur extraordinaire (Außerordentliche Professor) de chirurgie en 1883, et professeur honoraire (Honorarprofessor) en 1913. En 1883, au départ de Langenbeck, il est nommé premier assistant et, à partir de 1890, toujours à Berlin, il dirige le département de chirurgie de l'hôpital de Moabit. En 1899, il devient conseiller secret aux affaires médicales.
 En 1886, Sonnenburg est un des membres fondateurs de l'Association des chirurgiens berlinois (Freie Vereinigung der Chirurgen Berlins), renommée en 1912 Société de chirurgie de Berlin (de) (Berliner Chirurgische Gesellschaft) et dont il assure la présidence pendant deux ans, de 1912 à 1914.
@@ -545,12 +559,14 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Incision de Sonnenburg : incision pour la découverte du nerf dentaire inférieur[1].
-Point de Sonnenburg : point situé du côté droit de l'abdomen, à l'intersection de la ligne bi-iliaque et du bord externe du muscle droit et qui correspond à l'emplacement de la naissance de l'appendice[2].
-Procédé de Maylard[3]-Sonnenburg : procédé d'anastomose de l'intestin grêle et du côlon[4].
-Signe de Sonnenburg (ou signe de Hayem) : leucocytose sanguine observée dans l'appendicite accompagnée de péritonite[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Incision de Sonnenburg : incision pour la découverte du nerf dentaire inférieur.
+Point de Sonnenburg : point situé du côté droit de l'abdomen, à l'intersection de la ligne bi-iliaque et du bord externe du muscle droit et qui correspond à l'emplacement de la naissance de l'appendice.
+Procédé de Maylard-Sonnenburg : procédé d'anastomose de l'intestin grêle et du côlon.
+Signe de Sonnenburg (ou signe de Hayem) : leucocytose sanguine observée dans l'appendicite accompagnée de péritonite.</t>
         </is>
       </c>
     </row>
